--- a/DaySale_2025-05-27_21-32.xlsx
+++ b/DaySale_2025-05-27_21-32.xlsx
@@ -77,6 +77,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>AMBEZIM-G 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>ASPOCID PAEDIATRIC 75MG 30 CHEWABLE TAB.</t>
   </si>
   <si>
@@ -89,9 +104,6 @@
     <t>14.0000</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>BILTRICIDE 600MG 4 F.C. TABS</t>
   </si>
   <si>
@@ -260,6 +272,15 @@
     <t>70.00</t>
   </si>
   <si>
+    <t>DURICEF 500MG 12 CAPS.</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
   </si>
   <si>
@@ -353,6 +374,15 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>HUSH SACHET</t>
+  </si>
+  <si>
+    <t>115.00</t>
+  </si>
+  <si>
+    <t>115.0000</t>
+  </si>
+  <si>
     <t>IRUXOL TOPICAL OINT. 15 GM</t>
   </si>
   <si>
@@ -404,6 +434,15 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>OLFEN 50MG 20 LACTAB</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>PANADOL ACUTE HEAD COLD</t>
   </si>
   <si>
@@ -422,9 +461,6 @@
     <t>PANGESTAZOL 40MG 14 TABS.</t>
   </si>
   <si>
-    <t>102.00</t>
-  </si>
-  <si>
     <t>102.0000</t>
   </si>
   <si>
@@ -545,9 +581,6 @@
     <t>-70.0000</t>
   </si>
   <si>
-    <t>0:-1</t>
-  </si>
-  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -588,9 +621,6 @@
   </si>
   <si>
     <t>4.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -1407,7 +1437,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1416,31 +1446,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>35</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1456,13 +1486,13 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1473,7 +1503,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1482,14 +1512,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1506,7 +1536,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1515,14 +1545,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1532,14 +1562,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1548,14 +1578,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1565,11 +1595,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1581,14 +1611,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1598,11 +1628,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1614,14 +1644,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1631,11 +1661,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1647,14 +1677,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1664,11 +1694,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1680,14 +1710,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1697,11 +1727,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1713,14 +1743,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1730,11 +1760,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1746,14 +1776,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1763,11 +1793,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1779,31 +1809,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1812,31 +1842,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1845,14 +1875,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1866,10 +1896,10 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1885,7 +1915,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1895,14 +1925,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>48</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1911,7 +1941,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1928,14 +1958,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1944,14 +1974,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1961,14 +1991,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1977,14 +2007,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1994,14 +2024,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2010,14 +2040,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2027,11 +2057,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2043,14 +2073,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2060,14 +2090,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2076,14 +2106,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2093,14 +2123,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2109,14 +2139,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2126,14 +2156,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>97</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2142,14 +2172,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2166,7 +2196,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2182,7 +2212,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2192,14 +2222,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2208,14 +2238,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2232,7 +2262,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2248,7 +2278,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2258,14 +2288,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2274,14 +2304,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2291,11 +2321,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2307,14 +2337,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2324,14 +2354,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2340,28 +2370,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2373,31 +2403,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>123</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2413,7 +2443,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2446,21 +2476,21 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2472,31 +2502,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>40</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2505,14 +2535,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2522,14 +2552,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2538,14 +2568,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2555,11 +2585,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2571,14 +2601,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2588,14 +2618,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2604,31 +2634,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2637,14 +2667,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2654,14 +2684,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2670,14 +2700,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2687,14 +2717,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>24</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>97</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2703,14 +2733,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2720,11 +2750,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>42</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2736,14 +2766,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2753,14 +2783,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2769,14 +2799,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2786,14 +2816,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2809,7 +2839,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2819,14 +2849,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2835,14 +2865,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2852,11 +2882,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2868,14 +2898,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2885,14 +2915,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2901,14 +2931,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2918,14 +2948,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2934,14 +2964,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2951,14 +2981,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2967,14 +2997,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2984,11 +3014,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3000,14 +3030,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3017,14 +3047,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3033,14 +3063,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3050,14 +3080,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3066,14 +3096,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3083,14 +3113,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>178</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3099,14 +3129,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3116,14 +3146,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>131</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3132,31 +3162,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>184</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3165,28 +3195,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>188</v>
+        <v>32</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>97</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3198,31 +3228,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>31</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3231,31 +3261,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>28</v>
+        <v>191</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>196</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3264,31 +3294,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>28</v>
+        <v>195</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>157</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3297,24 +3327,24 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>199</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3337,13 +3367,13 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3351,10 +3381,10 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3363,31 +3393,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>206</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3403,24 +3433,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3429,28 +3459,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3462,28 +3492,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>210</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3495,66 +3525,198 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>28</v>
+        <v>216</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
-      <c r="P75" s="13">
-        <v>3478.9499999999998</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="14">
-        <v>213</v>
-      </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c t="s" r="G76" s="15">
-        <v>214</v>
-      </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
-      <c t="s" r="K76" s="17">
-        <v>215</v>
-      </c>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>217</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>32</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>37</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>196</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>218</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>169</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>37</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>196</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>219</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>220</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>37</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>196</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>221</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>32</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>37</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>107</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>222</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="P79" s="13">
+        <v>3745.27</v>
+      </c>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="14">
+        <v>223</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c t="s" r="G80" s="15">
+        <v>224</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c t="s" r="K80" s="17">
+        <v>225</v>
+      </c>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="352">
+  <mergeCells count="372">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3903,10 +4065,30 @@
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
     <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:Q80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
